--- a/data_cost.xlsx
+++ b/data_cost.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet_name_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="570">
   <si>
     <t>Name EN</t>
   </si>
@@ -1408,10 +1409,10 @@
     <t xml:space="preserve">Centre de recherche en robotique </t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre à jour le réseau </t>
+    <t>Réseau d'actualisation</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelle quantité de centre informatique </t>
+    <t>Centre d'informatique quantique</t>
   </si>
   <si>
     <t xml:space="preserve">Centre d'assemblage automatisé </t>
@@ -1577,6 +1578,183 @@
   </si>
   <si>
     <t xml:space="preserve">Kaelesh Discoverer Enhancement </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population min 59</t>
   </si>
 </sst>
 </file>
@@ -92209,4 +92387,1682 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:61">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+      <c r="E2">
+        <v>24200</v>
+      </c>
+      <c r="F2">
+        <v>26620</v>
+      </c>
+      <c r="G2">
+        <v>29282</v>
+      </c>
+      <c r="H2">
+        <v>32210.2</v>
+      </c>
+      <c r="I2">
+        <v>35431.22</v>
+      </c>
+      <c r="J2">
+        <v>38974.342</v>
+      </c>
+      <c r="K2">
+        <v>42871.776</v>
+      </c>
+      <c r="L2">
+        <v>47158.953</v>
+      </c>
+      <c r="M2">
+        <v>51874.849</v>
+      </c>
+      <c r="N2">
+        <v>57062.334</v>
+      </c>
+      <c r="O2">
+        <v>62768.567</v>
+      </c>
+      <c r="P2">
+        <v>69045.424</v>
+      </c>
+      <c r="Q2">
+        <v>75949.966</v>
+      </c>
+      <c r="R2">
+        <v>83544.963</v>
+      </c>
+      <c r="S2">
+        <v>91899.459</v>
+      </c>
+      <c r="T2">
+        <v>101089.405</v>
+      </c>
+      <c r="U2">
+        <v>111198.346</v>
+      </c>
+      <c r="V2">
+        <v>122318.18</v>
+      </c>
+      <c r="W2">
+        <v>134549.998</v>
+      </c>
+      <c r="X2">
+        <v>148004.998</v>
+      </c>
+      <c r="Y2">
+        <v>162805.498</v>
+      </c>
+      <c r="Z2">
+        <v>179086.048</v>
+      </c>
+      <c r="AA2">
+        <v>196994.653</v>
+      </c>
+      <c r="AB2">
+        <v>216694.118</v>
+      </c>
+      <c r="AC2">
+        <v>238363.53</v>
+      </c>
+      <c r="AD2">
+        <v>262199.883</v>
+      </c>
+      <c r="AE2">
+        <v>288419.872</v>
+      </c>
+      <c r="AF2">
+        <v>317261.859</v>
+      </c>
+      <c r="AG2">
+        <v>348988.045</v>
+      </c>
+      <c r="AH2">
+        <v>383886.849</v>
+      </c>
+      <c r="AI2">
+        <v>422275.534</v>
+      </c>
+      <c r="AJ2">
+        <v>464503.088</v>
+      </c>
+      <c r="AK2">
+        <v>510953.397</v>
+      </c>
+      <c r="AL2">
+        <v>562048.736</v>
+      </c>
+      <c r="AM2">
+        <v>618253.61</v>
+      </c>
+      <c r="AN2">
+        <v>680078.971</v>
+      </c>
+      <c r="AO2">
+        <v>748086.868</v>
+      </c>
+      <c r="AP2">
+        <v>822895.5550000001</v>
+      </c>
+      <c r="AQ2">
+        <v>905185.111</v>
+      </c>
+      <c r="AR2">
+        <v>995703.622</v>
+      </c>
+      <c r="AS2">
+        <v>1095273.984</v>
+      </c>
+      <c r="AT2">
+        <v>1204801.383</v>
+      </c>
+      <c r="AU2">
+        <v>1325281.521</v>
+      </c>
+      <c r="AV2">
+        <v>1457809.673</v>
+      </c>
+      <c r="AW2">
+        <v>1603590.641</v>
+      </c>
+      <c r="AX2">
+        <v>1763949.705</v>
+      </c>
+      <c r="AY2">
+        <v>1940344.675</v>
+      </c>
+      <c r="AZ2">
+        <v>2134379.143</v>
+      </c>
+      <c r="BA2">
+        <v>2347817.057</v>
+      </c>
+      <c r="BB2">
+        <v>2582598.763</v>
+      </c>
+      <c r="BC2">
+        <v>2840858.639</v>
+      </c>
+      <c r="BD2">
+        <v>3124944.503</v>
+      </c>
+      <c r="BE2">
+        <v>3437438.954</v>
+      </c>
+      <c r="BF2">
+        <v>3781182.849</v>
+      </c>
+      <c r="BG2">
+        <v>4159301.134</v>
+      </c>
+      <c r="BH2">
+        <v>4575231.247</v>
+      </c>
+      <c r="BI2">
+        <v>5032754.372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>110000</v>
+      </c>
+      <c r="E3">
+        <v>121000</v>
+      </c>
+      <c r="F3">
+        <v>133100</v>
+      </c>
+      <c r="G3">
+        <v>146410</v>
+      </c>
+      <c r="H3">
+        <v>161051</v>
+      </c>
+      <c r="I3">
+        <v>177156.1</v>
+      </c>
+      <c r="J3">
+        <v>194871.71</v>
+      </c>
+      <c r="K3">
+        <v>214358.881</v>
+      </c>
+      <c r="L3">
+        <v>235794.769</v>
+      </c>
+      <c r="M3">
+        <v>259374.246</v>
+      </c>
+      <c r="N3">
+        <v>285311.67</v>
+      </c>
+      <c r="O3">
+        <v>313842.837</v>
+      </c>
+      <c r="P3">
+        <v>345227.121</v>
+      </c>
+      <c r="Q3">
+        <v>379749.833</v>
+      </c>
+      <c r="R3">
+        <v>417724.816</v>
+      </c>
+      <c r="S3">
+        <v>459497.298</v>
+      </c>
+      <c r="T3">
+        <v>505447.028</v>
+      </c>
+      <c r="U3">
+        <v>555991.731</v>
+      </c>
+      <c r="V3">
+        <v>611590.904</v>
+      </c>
+      <c r="W3">
+        <v>672749.9939999999</v>
+      </c>
+      <c r="X3">
+        <v>740024.9939999999</v>
+      </c>
+      <c r="Y3">
+        <v>814027.493</v>
+      </c>
+      <c r="Z3">
+        <v>895430.243</v>
+      </c>
+      <c r="AA3">
+        <v>984973.267</v>
+      </c>
+      <c r="AB3">
+        <v>1083470.594</v>
+      </c>
+      <c r="AC3">
+        <v>1191817.653</v>
+      </c>
+      <c r="AD3">
+        <v>1310999.419</v>
+      </c>
+      <c r="AE3">
+        <v>1442099.361</v>
+      </c>
+      <c r="AF3">
+        <v>1586309.297</v>
+      </c>
+      <c r="AG3">
+        <v>1744940.226</v>
+      </c>
+      <c r="AH3">
+        <v>1919434.249</v>
+      </c>
+      <c r="AI3">
+        <v>2111377.674</v>
+      </c>
+      <c r="AJ3">
+        <v>2322515.441</v>
+      </c>
+      <c r="AK3">
+        <v>2554766.986</v>
+      </c>
+      <c r="AL3">
+        <v>2810243.684</v>
+      </c>
+      <c r="AM3">
+        <v>3091268.053</v>
+      </c>
+      <c r="AN3">
+        <v>3400394.858</v>
+      </c>
+      <c r="AO3">
+        <v>3740434.344</v>
+      </c>
+      <c r="AP3">
+        <v>4114477.778</v>
+      </c>
+      <c r="AQ3">
+        <v>4525925.556</v>
+      </c>
+      <c r="AR3">
+        <v>4978518.112</v>
+      </c>
+      <c r="AS3">
+        <v>5476369.923</v>
+      </c>
+      <c r="AT3">
+        <v>6024006.916</v>
+      </c>
+      <c r="AU3">
+        <v>6626407.607</v>
+      </c>
+      <c r="AV3">
+        <v>7289048.368</v>
+      </c>
+      <c r="AW3">
+        <v>8017953.205</v>
+      </c>
+      <c r="AX3">
+        <v>8819748.525</v>
+      </c>
+      <c r="AY3">
+        <v>9701723.378</v>
+      </c>
+      <c r="AZ3">
+        <v>10671895.716</v>
+      </c>
+      <c r="BA3">
+        <v>11739085.287</v>
+      </c>
+      <c r="BB3">
+        <v>12912993.816</v>
+      </c>
+      <c r="BC3">
+        <v>14204293.198</v>
+      </c>
+      <c r="BD3">
+        <v>15624722.518</v>
+      </c>
+      <c r="BE3">
+        <v>17187194.77</v>
+      </c>
+      <c r="BF3">
+        <v>18905914.247</v>
+      </c>
+      <c r="BG3">
+        <v>20796505.671</v>
+      </c>
+      <c r="BH3">
+        <v>22876156.239</v>
+      </c>
+      <c r="BI3">
+        <v>25163771.862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4">
+        <v>16000</v>
+      </c>
+      <c r="D4">
+        <v>18240</v>
+      </c>
+      <c r="E4">
+        <v>20793.599</v>
+      </c>
+      <c r="F4">
+        <v>23704.703</v>
+      </c>
+      <c r="G4">
+        <v>27023.362</v>
+      </c>
+      <c r="H4">
+        <v>30806.633</v>
+      </c>
+      <c r="I4">
+        <v>35119.561</v>
+      </c>
+      <c r="J4">
+        <v>40036.3</v>
+      </c>
+      <c r="K4">
+        <v>45641.382</v>
+      </c>
+      <c r="L4">
+        <v>52031.176</v>
+      </c>
+      <c r="M4">
+        <v>59315.541</v>
+      </c>
+      <c r="N4">
+        <v>67619.716</v>
+      </c>
+      <c r="O4">
+        <v>77086.477</v>
+      </c>
+      <c r="P4">
+        <v>87878.583</v>
+      </c>
+      <c r="Q4">
+        <v>100181.585</v>
+      </c>
+      <c r="R4">
+        <v>114207.007</v>
+      </c>
+      <c r="S4">
+        <v>130195.988</v>
+      </c>
+      <c r="T4">
+        <v>148423.427</v>
+      </c>
+      <c r="U4">
+        <v>169202.706</v>
+      </c>
+      <c r="V4">
+        <v>192891.085</v>
+      </c>
+      <c r="W4">
+        <v>219895.837</v>
+      </c>
+      <c r="X4">
+        <v>250681.255</v>
+      </c>
+      <c r="Y4">
+        <v>285776.63</v>
+      </c>
+      <c r="Z4">
+        <v>325785.359</v>
+      </c>
+      <c r="AA4">
+        <v>371395.309</v>
+      </c>
+      <c r="AB4">
+        <v>423390.652</v>
+      </c>
+      <c r="AC4">
+        <v>482665.344</v>
+      </c>
+      <c r="AD4">
+        <v>550238.492</v>
+      </c>
+      <c r="AE4">
+        <v>627271.8810000001</v>
+      </c>
+      <c r="AF4">
+        <v>715089.9449999999</v>
+      </c>
+      <c r="AG4">
+        <v>815202.537</v>
+      </c>
+      <c r="AH4">
+        <v>929330.892</v>
+      </c>
+      <c r="AI4">
+        <v>1059437.217</v>
+      </c>
+      <c r="AJ4">
+        <v>1207758.427</v>
+      </c>
+      <c r="AK4">
+        <v>1376844.607</v>
+      </c>
+      <c r="AL4">
+        <v>1569602.852</v>
+      </c>
+      <c r="AM4">
+        <v>1789347.252</v>
+      </c>
+      <c r="AN4">
+        <v>2039855.867</v>
+      </c>
+      <c r="AO4">
+        <v>2325435.689</v>
+      </c>
+      <c r="AP4">
+        <v>2650996.685</v>
+      </c>
+      <c r="AQ4">
+        <v>3022136.221</v>
+      </c>
+      <c r="AR4">
+        <v>3445235.292</v>
+      </c>
+      <c r="AS4">
+        <v>3927568.233</v>
+      </c>
+      <c r="AT4">
+        <v>4477427.786</v>
+      </c>
+      <c r="AU4">
+        <v>5104267.676</v>
+      </c>
+      <c r="AV4">
+        <v>5818865.151</v>
+      </c>
+      <c r="AW4">
+        <v>6633506.272</v>
+      </c>
+      <c r="AX4">
+        <v>7562197.15</v>
+      </c>
+      <c r="AY4">
+        <v>8620904.751</v>
+      </c>
+      <c r="AZ4">
+        <v>9827831.415999999</v>
+      </c>
+      <c r="BA4">
+        <v>11203727.815</v>
+      </c>
+      <c r="BB4">
+        <v>12772249.709</v>
+      </c>
+      <c r="BC4">
+        <v>14560364.668</v>
+      </c>
+      <c r="BD4">
+        <v>16598815.722</v>
+      </c>
+      <c r="BE4">
+        <v>18922649.923</v>
+      </c>
+      <c r="BF4">
+        <v>21571820.912</v>
+      </c>
+      <c r="BG4">
+        <v>24591875.84</v>
+      </c>
+      <c r="BH4">
+        <v>28034738.458</v>
+      </c>
+      <c r="BI4">
+        <v>31959601.842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5">
+        <v>90000</v>
+      </c>
+      <c r="D5">
+        <v>99000</v>
+      </c>
+      <c r="E5">
+        <v>108900</v>
+      </c>
+      <c r="F5">
+        <v>119790</v>
+      </c>
+      <c r="G5">
+        <v>131769</v>
+      </c>
+      <c r="H5">
+        <v>144945.9</v>
+      </c>
+      <c r="I5">
+        <v>159440.49</v>
+      </c>
+      <c r="J5">
+        <v>175384.539</v>
+      </c>
+      <c r="K5">
+        <v>192922.992</v>
+      </c>
+      <c r="L5">
+        <v>212215.292</v>
+      </c>
+      <c r="M5">
+        <v>233436.821</v>
+      </c>
+      <c r="N5">
+        <v>256780.503</v>
+      </c>
+      <c r="O5">
+        <v>282458.553</v>
+      </c>
+      <c r="P5">
+        <v>310704.409</v>
+      </c>
+      <c r="Q5">
+        <v>341774.85</v>
+      </c>
+      <c r="R5">
+        <v>375952.335</v>
+      </c>
+      <c r="S5">
+        <v>413547.568</v>
+      </c>
+      <c r="T5">
+        <v>454902.325</v>
+      </c>
+      <c r="U5">
+        <v>500392.558</v>
+      </c>
+      <c r="V5">
+        <v>550431.814</v>
+      </c>
+      <c r="W5">
+        <v>605474.995</v>
+      </c>
+      <c r="X5">
+        <v>666022.4939999999</v>
+      </c>
+      <c r="Y5">
+        <v>732624.7439999999</v>
+      </c>
+      <c r="Z5">
+        <v>805887.218</v>
+      </c>
+      <c r="AA5">
+        <v>886475.9399999999</v>
+      </c>
+      <c r="AB5">
+        <v>975123.534</v>
+      </c>
+      <c r="AC5">
+        <v>1072635.888</v>
+      </c>
+      <c r="AD5">
+        <v>1179899.477</v>
+      </c>
+      <c r="AE5">
+        <v>1297889.424</v>
+      </c>
+      <c r="AF5">
+        <v>1427678.367</v>
+      </c>
+      <c r="AG5">
+        <v>1570446.204</v>
+      </c>
+      <c r="AH5">
+        <v>1727490.824</v>
+      </c>
+      <c r="AI5">
+        <v>1900239.907</v>
+      </c>
+      <c r="AJ5">
+        <v>2090263.897</v>
+      </c>
+      <c r="AK5">
+        <v>2299290.287</v>
+      </c>
+      <c r="AL5">
+        <v>2529219.316</v>
+      </c>
+      <c r="AM5">
+        <v>2782141.247</v>
+      </c>
+      <c r="AN5">
+        <v>3060355.372</v>
+      </c>
+      <c r="AO5">
+        <v>3366390.91</v>
+      </c>
+      <c r="AP5">
+        <v>3703030.001</v>
+      </c>
+      <c r="AQ5">
+        <v>4073333.001</v>
+      </c>
+      <c r="AR5">
+        <v>4480666.301</v>
+      </c>
+      <c r="AS5">
+        <v>4928732.931</v>
+      </c>
+      <c r="AT5">
+        <v>5421606.224</v>
+      </c>
+      <c r="AU5">
+        <v>5963766.846</v>
+      </c>
+      <c r="AV5">
+        <v>6560143.531</v>
+      </c>
+      <c r="AW5">
+        <v>7216157.884</v>
+      </c>
+      <c r="AX5">
+        <v>7937773.673</v>
+      </c>
+      <c r="AY5">
+        <v>8731551.039999999</v>
+      </c>
+      <c r="AZ5">
+        <v>9604706.143999999</v>
+      </c>
+      <c r="BA5">
+        <v>10565176.759</v>
+      </c>
+      <c r="BB5">
+        <v>11621694.435</v>
+      </c>
+      <c r="BC5">
+        <v>12783863.878</v>
+      </c>
+      <c r="BD5">
+        <v>14062250.266</v>
+      </c>
+      <c r="BE5">
+        <v>15468475.293</v>
+      </c>
+      <c r="BF5">
+        <v>17015322.822</v>
+      </c>
+      <c r="BG5">
+        <v>18716855.104</v>
+      </c>
+      <c r="BH5">
+        <v>20588540.615</v>
+      </c>
+      <c r="BI5">
+        <v>22647394.676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6">
+        <v>40000</v>
+      </c>
+      <c r="D6">
+        <v>44000</v>
+      </c>
+      <c r="E6">
+        <v>48400</v>
+      </c>
+      <c r="F6">
+        <v>53240</v>
+      </c>
+      <c r="G6">
+        <v>58564</v>
+      </c>
+      <c r="H6">
+        <v>64420.4</v>
+      </c>
+      <c r="I6">
+        <v>70862.44</v>
+      </c>
+      <c r="J6">
+        <v>77948.68399999999</v>
+      </c>
+      <c r="K6">
+        <v>85743.552</v>
+      </c>
+      <c r="L6">
+        <v>94317.90700000001</v>
+      </c>
+      <c r="M6">
+        <v>103749.698</v>
+      </c>
+      <c r="N6">
+        <v>114124.668</v>
+      </c>
+      <c r="O6">
+        <v>125537.135</v>
+      </c>
+      <c r="P6">
+        <v>138090.848</v>
+      </c>
+      <c r="Q6">
+        <v>151899.933</v>
+      </c>
+      <c r="R6">
+        <v>167089.926</v>
+      </c>
+      <c r="S6">
+        <v>183798.919</v>
+      </c>
+      <c r="T6">
+        <v>202178.811</v>
+      </c>
+      <c r="U6">
+        <v>222396.692</v>
+      </c>
+      <c r="V6">
+        <v>244636.361</v>
+      </c>
+      <c r="W6">
+        <v>269099.997</v>
+      </c>
+      <c r="X6">
+        <v>296009.997</v>
+      </c>
+      <c r="Y6">
+        <v>325610.997</v>
+      </c>
+      <c r="Z6">
+        <v>358172.097</v>
+      </c>
+      <c r="AA6">
+        <v>393989.307</v>
+      </c>
+      <c r="AB6">
+        <v>433388.237</v>
+      </c>
+      <c r="AC6">
+        <v>476727.061</v>
+      </c>
+      <c r="AD6">
+        <v>524399.767</v>
+      </c>
+      <c r="AE6">
+        <v>576839.7439999999</v>
+      </c>
+      <c r="AF6">
+        <v>634523.718</v>
+      </c>
+      <c r="AG6">
+        <v>697976.09</v>
+      </c>
+      <c r="AH6">
+        <v>767773.699</v>
+      </c>
+      <c r="AI6">
+        <v>844551.069</v>
+      </c>
+      <c r="AJ6">
+        <v>929006.176</v>
+      </c>
+      <c r="AK6">
+        <v>1021906.794</v>
+      </c>
+      <c r="AL6">
+        <v>1124097.473</v>
+      </c>
+      <c r="AM6">
+        <v>1236507.221</v>
+      </c>
+      <c r="AN6">
+        <v>1360157.943</v>
+      </c>
+      <c r="AO6">
+        <v>1496173.737</v>
+      </c>
+      <c r="AP6">
+        <v>1645791.111</v>
+      </c>
+      <c r="AQ6">
+        <v>1810370.222</v>
+      </c>
+      <c r="AR6">
+        <v>1991407.244</v>
+      </c>
+      <c r="AS6">
+        <v>2190547.969</v>
+      </c>
+      <c r="AT6">
+        <v>2409602.766</v>
+      </c>
+      <c r="AU6">
+        <v>2650563.043</v>
+      </c>
+      <c r="AV6">
+        <v>2915619.347</v>
+      </c>
+      <c r="AW6">
+        <v>3207181.282</v>
+      </c>
+      <c r="AX6">
+        <v>3527899.41</v>
+      </c>
+      <c r="AY6">
+        <v>3880689.351</v>
+      </c>
+      <c r="AZ6">
+        <v>4268758.286</v>
+      </c>
+      <c r="BA6">
+        <v>4695634.115</v>
+      </c>
+      <c r="BB6">
+        <v>5165197.526</v>
+      </c>
+      <c r="BC6">
+        <v>5681717.279</v>
+      </c>
+      <c r="BD6">
+        <v>6249889.007</v>
+      </c>
+      <c r="BE6">
+        <v>6874877.908</v>
+      </c>
+      <c r="BF6">
+        <v>7562365.698</v>
+      </c>
+      <c r="BG6">
+        <v>8318602.268</v>
+      </c>
+      <c r="BH6">
+        <v>9150462.494999999</v>
+      </c>
+      <c r="BI6">
+        <v>10065508.745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7">
+        <v>130000</v>
+      </c>
+      <c r="D7">
+        <v>143000</v>
+      </c>
+      <c r="E7">
+        <v>157300</v>
+      </c>
+      <c r="F7">
+        <v>173030</v>
+      </c>
+      <c r="G7">
+        <v>190333</v>
+      </c>
+      <c r="H7">
+        <v>209366.3</v>
+      </c>
+      <c r="I7">
+        <v>230302.93</v>
+      </c>
+      <c r="J7">
+        <v>253333.223</v>
+      </c>
+      <c r="K7">
+        <v>278666.545</v>
+      </c>
+      <c r="L7">
+        <v>306533.199</v>
+      </c>
+      <c r="M7">
+        <v>337186.519</v>
+      </c>
+      <c r="N7">
+        <v>370905.171</v>
+      </c>
+      <c r="O7">
+        <v>407995.688</v>
+      </c>
+      <c r="P7">
+        <v>448795.257</v>
+      </c>
+      <c r="Q7">
+        <v>493674.783</v>
+      </c>
+      <c r="R7">
+        <v>543042.262</v>
+      </c>
+      <c r="S7">
+        <v>597346.488</v>
+      </c>
+      <c r="T7">
+        <v>657081.137</v>
+      </c>
+      <c r="U7">
+        <v>722789.25</v>
+      </c>
+      <c r="V7">
+        <v>795068.175</v>
+      </c>
+      <c r="W7">
+        <v>874574.993</v>
+      </c>
+      <c r="X7">
+        <v>962032.492</v>
+      </c>
+      <c r="Y7">
+        <v>1058235.742</v>
+      </c>
+      <c r="Z7">
+        <v>1164059.316</v>
+      </c>
+      <c r="AA7">
+        <v>1280465.247</v>
+      </c>
+      <c r="AB7">
+        <v>1408511.772</v>
+      </c>
+      <c r="AC7">
+        <v>1549362.949</v>
+      </c>
+      <c r="AD7">
+        <v>1704299.244</v>
+      </c>
+      <c r="AE7">
+        <v>1874729.169</v>
+      </c>
+      <c r="AF7">
+        <v>2062202.086</v>
+      </c>
+      <c r="AG7">
+        <v>2268422.294</v>
+      </c>
+      <c r="AH7">
+        <v>2495264.524</v>
+      </c>
+      <c r="AI7">
+        <v>2744790.976</v>
+      </c>
+      <c r="AJ7">
+        <v>3019270.074</v>
+      </c>
+      <c r="AK7">
+        <v>3321197.082</v>
+      </c>
+      <c r="AL7">
+        <v>3653316.79</v>
+      </c>
+      <c r="AM7">
+        <v>4018648.469</v>
+      </c>
+      <c r="AN7">
+        <v>4420513.316</v>
+      </c>
+      <c r="AO7">
+        <v>4862564.647</v>
+      </c>
+      <c r="AP7">
+        <v>5348821.112</v>
+      </c>
+      <c r="AQ7">
+        <v>5883703.223</v>
+      </c>
+      <c r="AR7">
+        <v>6472073.546</v>
+      </c>
+      <c r="AS7">
+        <v>7119280.9</v>
+      </c>
+      <c r="AT7">
+        <v>7831208.99</v>
+      </c>
+      <c r="AU7">
+        <v>8614329.890000001</v>
+      </c>
+      <c r="AV7">
+        <v>9475762.879000001</v>
+      </c>
+      <c r="AW7">
+        <v>10423339.166</v>
+      </c>
+      <c r="AX7">
+        <v>11465673.083</v>
+      </c>
+      <c r="AY7">
+        <v>12612240.392</v>
+      </c>
+      <c r="AZ7">
+        <v>13873464.431</v>
+      </c>
+      <c r="BA7">
+        <v>15260810.874</v>
+      </c>
+      <c r="BB7">
+        <v>16786891.961</v>
+      </c>
+      <c r="BC7">
+        <v>18465581.157</v>
+      </c>
+      <c r="BD7">
+        <v>20312139.273</v>
+      </c>
+      <c r="BE7">
+        <v>22343353.201</v>
+      </c>
+      <c r="BF7">
+        <v>24577688.521</v>
+      </c>
+      <c r="BG7">
+        <v>27035457.373</v>
+      </c>
+      <c r="BH7">
+        <v>29739003.11</v>
+      </c>
+      <c r="BI7">
+        <v>32712903.421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
+      </c>
+      <c r="D8">
+        <v>33000</v>
+      </c>
+      <c r="E8">
+        <v>36300</v>
+      </c>
+      <c r="F8">
+        <v>39930</v>
+      </c>
+      <c r="G8">
+        <v>43923</v>
+      </c>
+      <c r="H8">
+        <v>48315.3</v>
+      </c>
+      <c r="I8">
+        <v>53146.83</v>
+      </c>
+      <c r="J8">
+        <v>58461.513</v>
+      </c>
+      <c r="K8">
+        <v>64307.664</v>
+      </c>
+      <c r="L8">
+        <v>70738.42999999999</v>
+      </c>
+      <c r="M8">
+        <v>77812.273</v>
+      </c>
+      <c r="N8">
+        <v>85593.501</v>
+      </c>
+      <c r="O8">
+        <v>94152.851</v>
+      </c>
+      <c r="P8">
+        <v>103568.136</v>
+      </c>
+      <c r="Q8">
+        <v>113924.95</v>
+      </c>
+      <c r="R8">
+        <v>125317.445</v>
+      </c>
+      <c r="S8">
+        <v>137849.189</v>
+      </c>
+      <c r="T8">
+        <v>151634.108</v>
+      </c>
+      <c r="U8">
+        <v>166797.519</v>
+      </c>
+      <c r="V8">
+        <v>183477.271</v>
+      </c>
+      <c r="W8">
+        <v>201824.998</v>
+      </c>
+      <c r="X8">
+        <v>222007.498</v>
+      </c>
+      <c r="Y8">
+        <v>244208.248</v>
+      </c>
+      <c r="Z8">
+        <v>268629.072</v>
+      </c>
+      <c r="AA8">
+        <v>295491.98</v>
+      </c>
+      <c r="AB8">
+        <v>325041.178</v>
+      </c>
+      <c r="AC8">
+        <v>357545.296</v>
+      </c>
+      <c r="AD8">
+        <v>393299.825</v>
+      </c>
+      <c r="AE8">
+        <v>432629.808</v>
+      </c>
+      <c r="AF8">
+        <v>475892.789</v>
+      </c>
+      <c r="AG8">
+        <v>523482.068</v>
+      </c>
+      <c r="AH8">
+        <v>575830.274</v>
+      </c>
+      <c r="AI8">
+        <v>633413.302</v>
+      </c>
+      <c r="AJ8">
+        <v>696754.632</v>
+      </c>
+      <c r="AK8">
+        <v>766430.095</v>
+      </c>
+      <c r="AL8">
+        <v>843073.105</v>
+      </c>
+      <c r="AM8">
+        <v>927380.415</v>
+      </c>
+      <c r="AN8">
+        <v>1020118.457</v>
+      </c>
+      <c r="AO8">
+        <v>1122130.303</v>
+      </c>
+      <c r="AP8">
+        <v>1234343.333</v>
+      </c>
+      <c r="AQ8">
+        <v>1357777.667</v>
+      </c>
+      <c r="AR8">
+        <v>1493555.433</v>
+      </c>
+      <c r="AS8">
+        <v>1642910.977</v>
+      </c>
+      <c r="AT8">
+        <v>1807202.074</v>
+      </c>
+      <c r="AU8">
+        <v>1987922.282</v>
+      </c>
+      <c r="AV8">
+        <v>2186714.51</v>
+      </c>
+      <c r="AW8">
+        <v>2405385.961</v>
+      </c>
+      <c r="AX8">
+        <v>2645924.557</v>
+      </c>
+      <c r="AY8">
+        <v>2910517.013</v>
+      </c>
+      <c r="AZ8">
+        <v>3201568.714</v>
+      </c>
+      <c r="BA8">
+        <v>3521725.586</v>
+      </c>
+      <c r="BB8">
+        <v>3873898.145</v>
+      </c>
+      <c r="BC8">
+        <v>4261287.959</v>
+      </c>
+      <c r="BD8">
+        <v>4687416.755</v>
+      </c>
+      <c r="BE8">
+        <v>5156158.431</v>
+      </c>
+      <c r="BF8">
+        <v>5671774.274</v>
+      </c>
+      <c r="BG8">
+        <v>6238951.701</v>
+      </c>
+      <c r="BH8">
+        <v>6862846.871</v>
+      </c>
+      <c r="BI8">
+        <v>7549131.558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>110000</v>
+      </c>
+      <c r="E9">
+        <v>121000</v>
+      </c>
+      <c r="F9">
+        <v>133100</v>
+      </c>
+      <c r="G9">
+        <v>146410</v>
+      </c>
+      <c r="H9">
+        <v>161051</v>
+      </c>
+      <c r="I9">
+        <v>177156.1</v>
+      </c>
+      <c r="J9">
+        <v>194871.71</v>
+      </c>
+      <c r="K9">
+        <v>214358.881</v>
+      </c>
+      <c r="L9">
+        <v>235794.769</v>
+      </c>
+      <c r="M9">
+        <v>259374.246</v>
+      </c>
+      <c r="N9">
+        <v>285311.67</v>
+      </c>
+      <c r="O9">
+        <v>313842.837</v>
+      </c>
+      <c r="P9">
+        <v>345227.121</v>
+      </c>
+      <c r="Q9">
+        <v>379749.833</v>
+      </c>
+      <c r="R9">
+        <v>417724.816</v>
+      </c>
+      <c r="S9">
+        <v>459497.298</v>
+      </c>
+      <c r="T9">
+        <v>505447.028</v>
+      </c>
+      <c r="U9">
+        <v>555991.731</v>
+      </c>
+      <c r="V9">
+        <v>611590.904</v>
+      </c>
+      <c r="W9">
+        <v>672749.9939999999</v>
+      </c>
+      <c r="X9">
+        <v>740024.9939999999</v>
+      </c>
+      <c r="Y9">
+        <v>814027.493</v>
+      </c>
+      <c r="Z9">
+        <v>895430.243</v>
+      </c>
+      <c r="AA9">
+        <v>984973.267</v>
+      </c>
+      <c r="AB9">
+        <v>1083470.594</v>
+      </c>
+      <c r="AC9">
+        <v>1191817.653</v>
+      </c>
+      <c r="AD9">
+        <v>1310999.419</v>
+      </c>
+      <c r="AE9">
+        <v>1442099.361</v>
+      </c>
+      <c r="AF9">
+        <v>1586309.297</v>
+      </c>
+      <c r="AG9">
+        <v>1744940.226</v>
+      </c>
+      <c r="AH9">
+        <v>1919434.249</v>
+      </c>
+      <c r="AI9">
+        <v>2111377.674</v>
+      </c>
+      <c r="AJ9">
+        <v>2322515.441</v>
+      </c>
+      <c r="AK9">
+        <v>2554766.986</v>
+      </c>
+      <c r="AL9">
+        <v>2810243.684</v>
+      </c>
+      <c r="AM9">
+        <v>3091268.053</v>
+      </c>
+      <c r="AN9">
+        <v>3400394.858</v>
+      </c>
+      <c r="AO9">
+        <v>3740434.344</v>
+      </c>
+      <c r="AP9">
+        <v>4114477.778</v>
+      </c>
+      <c r="AQ9">
+        <v>4525925.556</v>
+      </c>
+      <c r="AR9">
+        <v>4978518.112</v>
+      </c>
+      <c r="AS9">
+        <v>5476369.923</v>
+      </c>
+      <c r="AT9">
+        <v>6024006.916</v>
+      </c>
+      <c r="AU9">
+        <v>6626407.607</v>
+      </c>
+      <c r="AV9">
+        <v>7289048.368</v>
+      </c>
+      <c r="AW9">
+        <v>8017953.205</v>
+      </c>
+      <c r="AX9">
+        <v>8819748.525</v>
+      </c>
+      <c r="AY9">
+        <v>9701723.378</v>
+      </c>
+      <c r="AZ9">
+        <v>10671895.716</v>
+      </c>
+      <c r="BA9">
+        <v>11739085.287</v>
+      </c>
+      <c r="BB9">
+        <v>12912993.816</v>
+      </c>
+      <c r="BC9">
+        <v>14204293.198</v>
+      </c>
+      <c r="BD9">
+        <v>15624722.518</v>
+      </c>
+      <c r="BE9">
+        <v>17187194.77</v>
+      </c>
+      <c r="BF9">
+        <v>18905914.247</v>
+      </c>
+      <c r="BG9">
+        <v>20796505.671</v>
+      </c>
+      <c r="BH9">
+        <v>22876156.239</v>
+      </c>
+      <c r="BI9">
+        <v>25163771.862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>